--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_1000/Tests_Estadisticos/dm_comparaciones_Block Bootstrapping_Lineal_No_Estacionario_ARIMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_1000/Tests_Estadisticos/dm_comparaciones_Block Bootstrapping_Lineal_No_Estacionario_ARIMA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
   <si>
     <t>N_Calib_1</t>
   </si>
@@ -41,9 +41,6 @@
   </si>
   <si>
     <t>No</t>
-  </si>
-  <si>
-    <t>Sí</t>
   </si>
 </sst>
 </file>
@@ -441,10 +438,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>1.463911267250823</v>
+        <v>1.513003127792729</v>
       </c>
       <c r="D2">
-        <v>0.1434053846010346</v>
+        <v>0.1445128998019207</v>
       </c>
       <c r="E2">
         <v>23.45800451064791</v>
@@ -467,10 +464,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>0.6621965774605171</v>
+        <v>0.4979572199634416</v>
       </c>
       <c r="D3">
-        <v>0.5079361256983508</v>
+        <v>0.6234554242942036</v>
       </c>
       <c r="E3">
         <v>23.45800451064791</v>
@@ -493,10 +490,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>1.975378977980625</v>
+        <v>1.817457031762177</v>
       </c>
       <c r="D4">
-        <v>0.04838870139072782</v>
+        <v>0.08279391146765369</v>
       </c>
       <c r="E4">
         <v>23.45800451064791</v>
@@ -505,7 +502,7 @@
         <v>19.34740349797205</v>
       </c>
       <c r="G4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H4">
         <v>100</v>
@@ -519,10 +516,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>0.01448365215702046</v>
+        <v>0.01322798873740942</v>
       </c>
       <c r="D5">
-        <v>0.9884458423472984</v>
+        <v>0.9895651270017631</v>
       </c>
       <c r="E5">
         <v>23.45800451064791</v>
@@ -545,10 +542,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>-0.9593939898640373</v>
+        <v>-1.096493018437365</v>
       </c>
       <c r="D6">
-        <v>0.3374984333591988</v>
+        <v>0.2847210121154709</v>
       </c>
       <c r="E6">
         <v>20.13512097004345</v>
@@ -571,10 +568,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>0.394386474968083</v>
+        <v>0.431002957956545</v>
       </c>
       <c r="D7">
-        <v>0.6933458146878833</v>
+        <v>0.6706598422932974</v>
       </c>
       <c r="E7">
         <v>20.13512097004345</v>
@@ -597,10 +594,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>-1.403709304192528</v>
+        <v>-1.516085941683251</v>
       </c>
       <c r="D8">
-        <v>0.1605903544209331</v>
+        <v>0.1437355652488148</v>
       </c>
       <c r="E8">
         <v>20.13512097004345</v>
@@ -623,10 +620,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>1.517788200284214</v>
+        <v>1.371819212740616</v>
       </c>
       <c r="D9">
-        <v>0.1292560579432842</v>
+        <v>0.1839484597363366</v>
       </c>
       <c r="E9">
         <v>22.28430731125519</v>
@@ -649,10 +646,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>-0.5240284000551035</v>
+        <v>-0.6628848391257672</v>
       </c>
       <c r="D10">
-        <v>0.6003279523426372</v>
+        <v>0.5142901991052837</v>
       </c>
       <c r="E10">
         <v>22.28430731125519</v>
@@ -675,10 +672,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>-1.753743107732889</v>
+        <v>-1.716267355215658</v>
       </c>
       <c r="D11">
-        <v>0.07965698139147448</v>
+        <v>0.1001629858674864</v>
       </c>
       <c r="E11">
         <v>19.34740349797205</v>
